--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3100,6 +3100,3409 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Dincer Eren</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Cagla</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>26.07.1990</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Osmangazi</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Demirel</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Selahattin</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>25-12-1984</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Adıyaman</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Krefeld</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hazza</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Huda Abdsamd Ahmed</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>02.11.1986</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Lahj</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kanou</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10-07-1977</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Ain alarab</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Witten</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Almaree</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mahran</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>01-12-1994</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Almalikiya</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Tiran</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Shani</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>03-07-1988</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tel Aviv</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oluwajobi</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Olalekan</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>02-04-1986</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Ondo west local government</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Solingen</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Kulovic</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Belma</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>02-11-1996</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Tuzla</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Cetiner</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hilal</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>13.03.1980</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Besni</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Dortmund/Dortmund</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hatahit</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Bayan</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>30-04-1994</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Damaskus</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Witten</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Martinez Puma</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Limber Ubaldo</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>17-12-1988</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cochabamba</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Shamla</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>28-09-1990</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Pishin</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ragheb</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Heba Ahmed Elsadek Mahmoud</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>12-02-1983</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Adnan</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>13-12-1989</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Alotaibi</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Raghad</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>29-10-1996</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Amman</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>El Ghouate</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Abdelaziz</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>17-06-1988</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sidi Bouknadel</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Moradiya</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Dhara Tushar</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>17.05.1995</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Bamangadh Junagadh</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Altenberge</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>serkan</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cüteli</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>29.03.1984</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Istanbul</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Haltern am See</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Aydin</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mustafa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>20-12-1978</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Kocaeli</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Khalidi</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Aida</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>29-09-1994</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Maarif</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guscott</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Romario Antonio</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>01-11-1996</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Parvin</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Sultana</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>07/08/1988</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Mymensingh</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Cakir</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nurdan</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>18.05.1982</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Çorum</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Hemer</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Demirazi</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Kristina</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>29-03-1999</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Thessaloniki</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Malki</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Ghinwa</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>01-01-1994</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Koblenz</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>S Pandia</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Marselina</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>30-03-1998</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hassan Farah</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Mahamed</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>21-03-1989</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Mogadischu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Somalia</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Halilaj</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Rei</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>24-05-1996</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Tirana</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nakshbandi</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Anas</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>10-05-1995</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Damaskus</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Kolesnikova</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Daria</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>26-09-2002</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Balakowo</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hossain</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Md Kamal</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>14-09-1981</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Chattogram</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Alnasan</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Nour</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>17.02.1989</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Damaskus Sub</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Lippstadt</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Khani</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Mohamad</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>01-01-1994</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Syrien</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Dash</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Suher</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>05-06-1997</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Ljubljana</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Minwoo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>28-06-2004</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Seongnam-si</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Danylo</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Soroka</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>12-04-2006</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Kharkiw , Ukraine</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Iserlohn</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Alsalkhadi</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Issam</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>05-10-1976</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Abu dhabi</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Bergkamen</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Okocha</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Jude Ukwandi</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Adonte</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>hulaj</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>hasim</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>24-02-1982</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>prilep</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Al Mheimed</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Abdul Kader</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>09-06-1993</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DEIR AZZOR</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Turan Pinar</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Biray</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>14-03-1985</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Malazgirt</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Morei</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Tareq</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>19-12-1996</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Damaskus</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Bo-Elongo Kimuemue</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>14-09-2003</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Kinshasa</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Democratic Republic of the Congo</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>bajrami</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>dardan</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>03.07.1991</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>prizren</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Herten</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Aydin</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Saadet</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>09-09-1999</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Osmangazi</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Al-Zuhairi</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>29.11.1982</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>IRQ</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Lippstadt</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Fröndenberg/Ruhr</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Ahlen</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Dorsten</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Bad laer</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Nordkirchen</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Hattingen</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Hattingen</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Lünen</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Bielefeld</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Oer-Erkenschwick</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Fröndenberg/Ruhr</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Höxter</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Beckum</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Beckum</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Lünen</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Bielefeld</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Willich</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Wetter</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Iserlohn</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Recklinghausen</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Aachen</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Schermbeck</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Unna</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Obergünzburg</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Kleve</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Neu Wulmstorf</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Neu Wulmstorf</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Neu Wulmstorf</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4275,2234 +4275,6 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>S Pandia</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Marselina</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>30-03-1998</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Medan</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Münster</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Hassan Farah</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Mahamed</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>21-03-1989</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Mogadischu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Somalia</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Halilaj</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Rei</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>24-05-1996</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Tirana</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Nakshbandi</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Anas</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>10-05-1995</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Damaskus</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Kolesnikova</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Daria</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>26-09-2002</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Balakowo</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>009</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Hossain</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Md Kamal</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>14-09-1981</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Chattogram</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Essen</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Alnasan</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Nour</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>17.02.1989</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Damaskus Sub</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Lippstadt</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Khani</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Mohamad</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>01-01-1994</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Syrien</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Dash</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Suher</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>05-06-1997</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Ljubljana</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Lee</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Minwoo</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>28-06-2004</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Seongnam-si</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Korea</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Münster</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Danylo</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Soroka</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>12-04-2006</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Kharkiw , Ukraine</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>009</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Iserlohn</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Alsalkhadi</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Issam</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>05-10-1976</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Abu dhabi</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Bergkamen</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Okocha</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Jude Ukwandi</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>01-08-2023</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Adonte</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>hulaj</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>hasim</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>24-02-1982</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>prilep</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Kosovo</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Gelsenkirchen</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Al Mheimed</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Abdul Kader</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>09-06-1993</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>DEIR AZZOR</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Hagen</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Turan Pinar</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Biray</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>14-03-1985</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Malazgirt</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>011</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Hagen</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Morei</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Tareq</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>19-12-1996</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Damaskus</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Bo-Elongo Kimuemue</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>14-09-2003</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Kinshasa</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Democratic Republic of the Congo</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Herne</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>bajrami</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>dardan</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>03.07.1991</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>prizren</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Kosovo</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Herten</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Aydin</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Saadet</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>09-09-1999</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Osmangazi</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>011</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Al-Zuhairi</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Omar</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>29.11.1982</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>IRQ</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Münster</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Lippstadt</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Bremen</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Bochum</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Hagen</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Fröndenberg/Ruhr</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Ahlen</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Dorsten</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Bad laer</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Gütersloh</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Oberhausen</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Nordkirchen</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Hattingen</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Hattingen</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Leverkusen</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Lünen</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Essen</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Oer-Erkenschwick</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Fröndenberg/Ruhr</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Gelsenkirchen</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Höxter</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Beckum</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Hagen</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Bochum</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Gelsenkirchen</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Hagen</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Beckum</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Lünen</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Oberhausen</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Willich</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Wetter</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Iserlohn</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Bayreuth</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Recklinghausen</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Aachen</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Düsseldorf</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Hamburg</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Schermbeck</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Unna</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Obergünzburg</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Hagen</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Bonn</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Kleve</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Köln</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Neu Wulmstorf</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Neu Wulmstorf</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Neu Wulmstorf</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Hamm</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4275,6 +4275,2234 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>S Pandia</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Marselina</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>30-03-1998</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hassan Farah</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Mahamed</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>21-03-1989</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Mogadischu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Somalia</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Halilaj</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Rei</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>24-05-1996</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Tirana</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nakshbandi</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Anas</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>10-05-1995</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Damaskus</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Kolesnikova</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Daria</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>26-09-2002</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Balakowo</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hossain</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Md Kamal</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>14-09-1981</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Chattogram</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Alnasan</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Nour</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>17.02.1989</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Damaskus Sub</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Lippstadt</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Khani</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Mohamad</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>01-01-1994</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Syrien</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Dash</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Suher</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>05-06-1997</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Ljubljana</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Minwoo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>28-06-2004</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Seongnam-si</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Danylo</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Soroka</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>12-04-2006</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Kharkiw , Ukraine</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Iserlohn</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Alsalkhadi</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Issam</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>05-10-1976</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Abu dhabi</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Bergkamen</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Okocha</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Jude Ukwandi</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Adonte</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>hulaj</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>hasim</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>24-02-1982</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>prilep</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Al Mheimed</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Abdul Kader</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>09-06-1993</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DEIR AZZOR</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Turan Pinar</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Biray</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>14-03-1985</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Malazgirt</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Morei</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Tareq</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>19-12-1996</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Damaskus</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Bo-Elongo Kimuemue</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>14-09-2003</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Kinshasa</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Democratic Republic of the Congo</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Herne</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>bajrami</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>dardan</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>03.07.1991</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>prizren</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Kosovo</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Herten</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Aydin</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Saadet</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>09-09-1999</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Osmangazi</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Al-Zuhairi</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>29.11.1982</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>IRQ</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Lippstadt</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Fröndenberg/Ruhr</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Ahlen</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Dorsten</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Bad laer</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Nordkirchen</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Hattingen</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Hattingen</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Lünen</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Bielefeld</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Oer-Erkenschwick</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Fröndenberg/Ruhr</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Höxter</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Beckum</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Gelsenkirchen</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Beckum</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Lünen</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Bielefeld</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Willich</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Wetter</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Iserlohn</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Recklinghausen</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Aachen</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Schermbeck</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Unna</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Obergünzburg</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Kleve</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Neu Wulmstorf</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Neu Wulmstorf</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Neu Wulmstorf</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Hamm</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
